--- a/data/discussion/5_computational.xlsx
+++ b/data/discussion/5_computational.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45185ABC-2050-490F-AC80-D3CC244A62B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D7F47-61F4-4918-B89A-C2B81B1DA831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="170">
   <si>
     <t>ikeda-tanaka:2010:5509579</t>
   </si>
@@ -504,6 +504,52 @@
   </si>
   <si>
     <t>parallel computation reduces computational complexity (in PLSAV only checks 4 candidates in parallel for each frame)</t>
+  </si>
+  <si>
+    <t>bosse-zlot:2009:009</t>
+  </si>
+  <si>
+    <t>dimension reduction technique to remove elelments w/ low signal-to-noise SNR ratio (after maximizing the separability between matching and non-matching descriptor pairs L2-based)</t>
+  </si>
+  <si>
+    <t>invariant / stable features (segment PC into connected components + compute centroids, clusters high positive curvatures, mean-shift convergence; select stable points = probability finding matching keypoint in same location in 2 overlapping submaps; evaluate saliency keypoint description Cmax and rank distribution)</t>
+  </si>
+  <si>
+    <t>dimension reduction technique to remove elelments w/ low signal-to-noise SNR ratio</t>
+  </si>
+  <si>
+    <t>dimension reduction improve separability (match vs non) + reduce computation required for NN search</t>
+  </si>
+  <si>
+    <t>latif-et-al:2017:016</t>
+  </si>
+  <si>
+    <t>visual varying conditions (compatible with different types of descriptors e.g. GIST HOG, whole scene descriptors),</t>
+  </si>
+  <si>
+    <t>sparse l1-minimization loop closure detection</t>
+  </si>
+  <si>
+    <t>loop closure as sparse convex l1-minimization problem to efficiently find loop closures enabling real-time operation</t>
+  </si>
+  <si>
+    <t>no offline learning requires allows online incremental operation</t>
+  </si>
+  <si>
+    <t>compatible with different types of descriptors e.g. GIST HOG, whole scene descriptors</t>
+  </si>
+  <si>
+    <t>computational performance not evaluated &gt; only empirically (should have evaluated along with the incremental size of the dictionary)
+4800 dimension feature, mean of 116.45ms w/ std of 43.229ms</t>
+  </si>
+  <si>
+    <t>principal component analysis PCA to reduce each 16 vectors of 25088 dimension to 100 dim</t>
+  </si>
+  <si>
+    <t>camara-et-al:2020:9196967</t>
+  </si>
+  <si>
+    <t>invariant / stable features (combination of semantic + spatial data, frame correlation to introduice prior knowledge into spatial matching stage ~ favor candidates consistent w/ previous recognized location)</t>
   </si>
 </sst>
 </file>
@@ -560,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,6 +626,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,437 +909,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="20.77734375" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:22" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="183.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="81.599999999999994" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:22" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:22" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:22" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="51" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="51" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1302,15 +1393,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E548677-1519-4A9B-A5B2-76B48FFAFA5E}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1320,168 +1409,192 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>137</v>
       </c>
     </row>

--- a/data/discussion/5_computational.xlsx
+++ b/data/discussion/5_computational.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D7F47-61F4-4918-B89A-C2B81B1DA831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753957E9-534B-4B35-A3FF-49F6AAE23A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
   <si>
     <t>ikeda-tanaka:2010:5509579</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>invariant / stable features (combination of semantic + spatial data, frame correlation to introduice prior knowledge into spatial matching stage ~ favor candidates consistent w/ previous recognized location)</t>
+  </si>
+  <si>
+    <t>xing-et-al:2022:22062</t>
+  </si>
+  <si>
+    <t>use of a HOG-NET (given that HOG descript low compute efficiency)</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -615,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,10 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -968,7 +971,7 @@
       <c r="Q1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="4" t="s">
         <v>168</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -1393,9 +1396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E548677-1519-4A9B-A5B2-76B48FFAFA5E}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1598,6 +1603,14 @@
         <v>137</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/discussion/5_computational.xlsx
+++ b/data/discussion/5_computational.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753957E9-534B-4B35-A3FF-49F6AAE23A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EF542-1210-46E0-8408-4CFCF2951B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="170">
   <si>
     <t>ikeda-tanaka:2010:5509579</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>intra-coding to encode starting obserbation: evaluation of residuals between original descriptor vs visual word saved in the vocabulary (Hamming distance)</t>
-  </si>
-  <si>
-    <t>landmark compression in the visual vocabulary (optimze residuals Hamming dist(descriptor , visual word)) using binary descriptors</t>
   </si>
   <si>
     <t>Working Memory WM: where maps ~ graphs of nodes and links are processed</t>
@@ -296,9 +293,6 @@
     <t>split img into grid for high parallelism, for quicvk evaluation convert img &gt; illumination invariant then histogram computed + flatened into vector</t>
   </si>
   <si>
-    <t>offline database to store older local maps</t>
-  </si>
-  <si>
     <t>parallel computing</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t>Hamming distance w/ binnary descriptors faster and more effective than matching descriptors w/ L2 norm</t>
   </si>
   <si>
-    <t>CNN layer features into binary representation to reduce computational complexity</t>
-  </si>
-  <si>
     <t>execution time not evaluated neither a comparison between binary representation vs original (i.e., effect of binary representation vs original not evaluated)</t>
   </si>
   <si>
@@ -383,9 +374,6 @@
     <t>introduction of new species into gene pool to allow BRIEF and LATCH comparisons to compute for survival (for computing binary descriptor of a keypoint of interest)</t>
   </si>
   <si>
-    <t>recomputation of SURF keypoints of interest into binary descriptors</t>
-  </si>
-  <si>
     <t>recomputation of SURF keypoints of interest into binary descriptors for improved computation efficiency (compatible w/ Hamming distance)</t>
   </si>
   <si>
@@ -395,9 +383,6 @@
     <t>compress raw LIDAR data into low dim features for fast storage and retrieval</t>
   </si>
   <si>
-    <t>compress raw LIDAR data into low dim features</t>
-  </si>
-  <si>
     <t>adversarial feature learning (variant of GAN) to compress high dim space of LiDAR measures</t>
   </si>
   <si>
@@ -413,9 +398,6 @@
     <t>able to recognize spaces under variant viewpoints difference</t>
   </si>
   <si>
-    <t>binary descriptors</t>
-  </si>
-  <si>
     <t>global binary features allowing Hamming matching scheme</t>
   </si>
   <si>
@@ -437,9 +419,6 @@
     <t xml:space="preserve">logarithmic evolution on average processing time vs #images to be matched </t>
   </si>
   <si>
-    <t>global binary features (new D-LDB descript) allowing Hamming matching scheme</t>
-  </si>
-  <si>
     <t>triplet labels to learn img features and hash codes simultaneously</t>
   </si>
   <si>
@@ -483,12 +462,6 @@
   </si>
   <si>
     <t>deep loop detection in parallel structure w/ multithreading computing</t>
-  </si>
-  <si>
-    <t>learn representations LiDAR PC into low dim Euclidean space for efficient matching</t>
-  </si>
-  <si>
-    <t>lower dimensional representations</t>
   </si>
   <si>
     <t>map memory management</t>
@@ -552,17 +525,38 @@
     <t>invariant / stable features (combination of semantic + spatial data, frame correlation to introduice prior knowledge into spatial matching stage ~ favor candidates consistent w/ previous recognized location)</t>
   </si>
   <si>
-    <t>xing-et-al:2022:22062</t>
-  </si>
-  <si>
-    <t>use of a HOG-NET (given that HOG descript low compute efficiency)</t>
+    <t>taisho-kanji:2016:7866383</t>
+  </si>
+  <si>
+    <t>xin-et-al:2017:8310121</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis (PCA) can be used for dimensionality reduction (4096 to 128-dimensional features), defining the proposed descriptor PCA-NBNN</t>
+  </si>
+  <si>
+    <t>yu-et-al:2019:8961714</t>
+  </si>
+  <si>
+    <t>piasco-et-al:2021:6</t>
+  </si>
+  <si>
+    <t>reduce dimension of the descriptors by applying PCA and whitening</t>
+  </si>
+  <si>
+    <t>4 max-pooling by channel proposed to reduce the descriptors dimensions with minimal accuracy reduction. 1024-dimension divided into 256 groups and maximum of ech group used as final descriptor. Compared to PCA, 4 max-pooling by channel has less computational complexity but similar performance</t>
+  </si>
+  <si>
+    <t>random selection technique for feature dimension reduction. no need for further training nor significant loss in efficiency and effectiveness compared to Local Sensitive Hushing (LSH) and Principal Component Analysis (PCA)</t>
+  </si>
+  <si>
+    <t>lower dimensional reduction techniques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,21 +577,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -612,26 +604,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -922,69 +909,69 @@
     <col min="2" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="213.75" x14ac:dyDescent="0.25">
@@ -992,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1001,49 +988,49 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>12</v>
@@ -1052,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.25">
@@ -1060,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1069,63 +1056,63 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -1134,55 +1121,55 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="101.25" x14ac:dyDescent="0.25">
@@ -1193,55 +1180,55 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="112.5" x14ac:dyDescent="0.25">
@@ -1252,49 +1239,49 @@
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="101.25" x14ac:dyDescent="0.25">
@@ -1302,37 +1289,37 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
@@ -1340,19 +1327,19 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1360,16 +1347,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
@@ -1377,10 +1364,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
@@ -1396,11 +1383,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E548677-1519-4A9B-A5B2-76B48FFAFA5E}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1409,209 +1394,186 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>0</v>
+      <c r="A9" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>2</v>
+      <c r="A10" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>66</v>
+      <c r="A11" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>67</v>
+      <c r="A12" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>